--- a/va_facility_data_2025-02-20/Master Sergeant Jerry K. Crump VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Master%20Sergeant%20Jerry%20K.%20Crump%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Master Sergeant Jerry K. Crump VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Master%20Sergeant%20Jerry%20K.%20Crump%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rdffc177837094cda801cdd1b91268092"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1306d07d26f64a8691f485a4303e5b0b"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re4a714a5ddd04c96a5d409c4905ce328"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R165a0d57bd694d92a28a61c28f006084"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R55644306a140437cb7701e39abb4a95a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6d3fbc93512d457c9ae4d59944831025"/>
   </x:sheets>
 </x:workbook>
 </file>
